--- a/modelo_base_dados_tratada.xlsx
+++ b/modelo_base_dados_tratada.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="382">
   <si>
     <t>E-mail</t>
   </si>
@@ -130,6 +130,12 @@
     <t>cristhian.costa@mrv.com.br</t>
   </si>
   <si>
+    <t>tiago.sguedes@mrv.com.br</t>
+  </si>
+  <si>
+    <t>marcus.pereira@primeconstrucoes.com.br</t>
+  </si>
+  <si>
     <t>2025-05-19 19:02:08</t>
   </si>
   <si>
@@ -259,6 +265,21 @@
     <t>2025-05-23 12:21:14</t>
   </si>
   <si>
+    <t>2025-05-23 13:08:15</t>
+  </si>
+  <si>
+    <t>2025-05-23 13:08:22</t>
+  </si>
+  <si>
+    <t>2025-05-23 13:18:09</t>
+  </si>
+  <si>
+    <t>2025-05-23 13:20:56</t>
+  </si>
+  <si>
+    <t>2025-05-23 13:42:32</t>
+  </si>
+  <si>
     <t>Painel</t>
   </si>
   <si>
@@ -274,57 +295,15 @@
     <t>Painel Produção Produtividade e MO - PLNESROBR005</t>
   </si>
   <si>
-    <t>Controle de concretagem</t>
-  </si>
-  <si>
-    <t>Planilha de medição de EMP</t>
-  </si>
-  <si>
     <t>Painel Análises Forecast de Produção - PLNESROBR009</t>
   </si>
   <si>
-    <t>PBI,Consultar dados,Power BI,💎 Muito Importante,3.0</t>
-  </si>
-  <si>
-    <t>Planilha de Médio Prazo (Replan),Acompanhamento das metas mensais do engenheiro,Excel,💎 Muito Importante,40.0</t>
-  </si>
-  <si>
     <t>PAP - Dossiê</t>
   </si>
   <si>
-    <t>Planilha automatizada - teste,Objetivo 1,Excel,OUTROS,🪙 Importante,7.0</t>
-  </si>
-  <si>
-    <t>Ferramentas - Planejamento Operacional,Objetivo 2,Python,MOP/EMP,🟢 Pouco Importante,4.0</t>
-  </si>
-  <si>
-    <t>Planilha automatizada - teste 2,Objetivo 10,Excel,OUTROS,🟢 Pouco Importante,6.0</t>
-  </si>
-  <si>
-    <t>ghjghjghjg,,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
-    <t>jjjjj,,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
-    <t>,,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
-    <t>Seman,Se,Excel,PROJECT,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
-    <t>Teste 2,Objetivo 2,Report e-mail,AUXÍLIO REGIONAL,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
     <t>Painel Operações - Planejamento e Controle - PLNESROBR010</t>
   </si>
   <si>
-    <t>sdasdasdasd,asdasdasd,SAP BO + Excel,OUTROS,🟢 Pouco Importante,3.0</t>
-  </si>
-  <si>
-    <t>ssss,ssss,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
     <t>Painel AMP x PLS - CST002</t>
   </si>
   <si>
@@ -334,78 +313,18 @@
     <t>Painel Custos Produção - ENGPDC009</t>
   </si>
   <si>
-    <t>Semanômetro,UP/VP semanal,Excel,OUTROS,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
-    <t>Recruta Simples,Acompanhar contratação MO,Outra,MOP/EMP,💎 Muito Importante,50.0</t>
-  </si>
-  <si>
-    <t>ssss,sss,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
     <t>Painel Gestão de Acesso Obras - ENGPDC011</t>
   </si>
   <si>
-    <t>Ferramenta 1,DOIS,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>Ferramenta 2,Objetivo 2,SAP BO + Excel,MOP/EMP,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>Ferramenta 1,Teste1,SAP BO + Excel,OUTROS,💎 Muito Importante,4.0</t>
-  </si>
-  <si>
-    <t>Ferramenta 2,Teste2,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
-    <t>Planilha automatizada,Automatizar,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,0.0</t>
-  </si>
-  <si>
-    <t>Planilha de medição de MOP,Objetivo 1,Excel,MOP/EMP,🪙 Importante,4.0</t>
-  </si>
-  <si>
-    <t>Planilha automatizada,Automatizar (objetivo),Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,3.0</t>
-  </si>
-  <si>
-    <t>Planilha automatizada,Objetivo 1,BIG + Excel,AUXÍLIO REGIONAL,🪙 Importante,2.0</t>
-  </si>
-  <si>
-    <t>Planilha de medição de MOP,Objetivo 2,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,6.0</t>
-  </si>
-  <si>
     <t>Painel Acompanhamento de Concreto - ENGPDC032</t>
   </si>
   <si>
-    <t>Planilha de medição de MOP,Obj 1,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,3.0</t>
-  </si>
-  <si>
-    <t>Planilha ,Obj3,Excel,AUXÍLIO REGIONAL,🟢 Pouco Importante,5.0</t>
-  </si>
-  <si>
-    <t>Planilha automatizada,Obj1,SAP BO + Excel,AMP X PLS,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
-    <t>power BI,Pauta de custos,Power BI,CUSTOS,🪙 Importante,10.0</t>
-  </si>
-  <si>
-    <t>excel,Apontamento de AMP,Excel,AMP X PLS,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
     <t>Painel de Materiais - ENGPDC005</t>
   </si>
   <si>
-    <t>Semanômetro Atividade,Olhar a evolução das up das atividades mensal,Excel,REPLAN,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
     <t>Painel SSMA Regionais - ENGPDC030</t>
   </si>
   <si>
-    <t>PROJECT,Planejamento.,Outra,SEQUENCIAMENTO MO,💎 Muito Importante,30.0</t>
-  </si>
-  <si>
-    <t>GESTOR DE LINHAS,Planejamento.,Power BI,SEQUENCIAMENTO MO,💎 Muito Importante,20.0</t>
-  </si>
-  <si>
     <t>Painel Cockpit Produção - ENGPDC010</t>
   </si>
   <si>
@@ -415,162 +334,15 @@
     <t>Painel Qualidade - ENGPDC007</t>
   </si>
   <si>
-    <t>Histograma,Verificar necessidade de MO das obras,Excel,MOP/EMP,🟠 Não Importante,2.0</t>
-  </si>
-  <si>
-    <t>Fluxo de caixa,Acompanhar o gasto realizado X cheque previsto,Excel,AUXÍLIO REGIONAL,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>Confirmação do Realizado,Acompanhar % de atividades e VP realizadas em comparação ao previsto em replan.,Excel,REPLAN,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>MS Project,Ferramenta de planejamento de obra,Outra,PROJECT,💎 Muito Importante,20.0</t>
-  </si>
-  <si>
-    <t>Painel Hora Extra,Acompanhar número de horas extras por obra. Poderia incluir o custo estimado,Power BI,HORAS EXTRAS,🪙 Importante,1.0</t>
-  </si>
-  <si>
-    <t>Painel Extração Orçamento Vivo,Retirar base de dados para preenchimento da planilha de acompanhamento de fluxo de caixa das obras,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,4.0</t>
-  </si>
-  <si>
-    <t>Painel Mão de Obra rateio,Conferir valores rateados nas obras,Power BI,CUSTOS,💎 Muito Importante,4.0</t>
-  </si>
-  <si>
-    <t>Retomada Meta,Verificar a variação da projeção nível PEP, considerando variação de estoque por PEP,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,20.0</t>
-  </si>
-  <si>
-    <t>Painel ENTE,Acompanhar pendências para ENTE obra,Power BI,AUXÍLIO REGIONAL,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
-    <t>Acompanhamento Semanal das atividades,Utilizo o project para montar essa planilha e verificar semanalmente se as obras estão seguindo as metas do mês ( conseguindo cumprir o VP planejado ) mas sempre com assertividade ao planejado.,Excel,REPLAN,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>Planilha de Cheque,Utilizo as bases do BIG e alguns paineis do Power PI para montar essa planilha e acompanhar os principais indices da obra em um resumo. Facilita muito principalmente para o Gestor de obras. Acompanhamos semanalmente com essa planilha ( VP , AMP, IP , Estoque , Projeção , custo incorrido, entregas AT , IA , MOP , GED, Depreciação de equipamento... ) e mensalmente ( PLS , IA , IB , Farol , Forecast ).,BIG + Excel,AUXÍLIO REGIONAL,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
-    <t>Planilha Resumo medição MOP,Utilizo a base do SAP BO de MO para gerar uma planilha de resumo das medições MOP ( com os serviços sendo comparado com o orçamento, ranking de premiações , analise de serviços especiais...).,SAP BO + Excel,MOP/EMP,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>Planilha Capa de medição EMP,A planilha faz um resumo da medição de EMP mostrando se a empresa esta se pagando ou não. Isso é importante para fazer o acompanhamento e não deixar o EMP quebrar.,Excel,MOP/EMP,🪙 Importante,1.0</t>
-  </si>
-  <si>
-    <t>Planilha LOB,Utilizo a base do project após o replan para gerar as linhas de balanço da obra.,Excel,REPLAN,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
-    <t>Planilha Start de Material e MO,Utilizo a base do project para gerar uma planilha de Start de compras de material e tambem e contratação de MO.,Excel,REPLAN,💎 Muito Importante,4.0</t>
-  </si>
-  <si>
-    <t>Planilha Proximas Atividades,Utilizo a planilha pronta que é gerada no PWA ( lista de proximas atividades ) para fazer a reunião com os engenheiros e definir as metas no replan.,Excel,REPLAN,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
-    <t>Planilha One Page,Utilizo a planilha pronta do PWA para analisar a nova curva de produção após o replan.,Excel,REPLAN,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
-    <t>Paineis Power BI - IB , MO RATEIO , Serviços Especiais...,Criei alguns paines no Power BI para facilitar a analise de alguns indices ( ele faz um resumo do valor orç total , valor orç por unid , incorrido total , incorrido por unid , projeção , historico mês a mês...),Power BI,CUSTOS,🪙 Importante,7.0</t>
-  </si>
-  <si>
-    <t>Planilha de IA,Planilha onde fazemos o acompanhamento dos custos de IA da obra. A base vem do SAP BO e tbm do ENG177.,Excel,CUSTOS,💎 Muito Importante,7.0</t>
-  </si>
-  <si>
-    <t>Planilha de IEQ,Planilha onde fazemos o acompanhamento dos custos de IEQ da obra. A base vem do SAP BO.,Excel,CUSTOS,💎 Muito Importante,7.0</t>
-  </si>
-  <si>
-    <t>Planilha de ADM,Planilha onde fazemos o acompanhamento dos custos de ADM da obra. A base vem do SAP BO e de outras planilhas.,Excel,CUSTOS,💎 Muito Importante,7.0</t>
-  </si>
-  <si>
     <t>Relatório de Métricas de Preços e Serviços - ENGPDC004</t>
   </si>
   <si>
-    <t>Acompanhamento de Medição EMP,Garantir lançamento correto de medição,SAP BO + Excel,MOP/EMP,💎 Muito Importante,12.0</t>
-  </si>
-  <si>
-    <t>Fluxo de Caixa Semanal - Cheque,Acompanhamento da Projeção Semanal,Excel,CUSTOS,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
-    <t>Semanômetro,Acompanhamento de Produção Semanal,Excel,PROJECT,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>Semanômetro,Após o replan, avanço as semanas no project e copio as colunas de atividade, amp e % realizado numa planilha em excel para que a obra saiba o quanto e o que terá que produzir semanalmente. Essa planilha é atualizada todas as semanas após o lançamento e enviada por email para a obra/gestor com a finalidade principal de acompanhar os avanços semanais,  evolução ao longo do mês e aderência ao planejamento.,Excel,REPLAN,💎 Muito Importante,10.0</t>
-  </si>
-  <si>
-    <t>Acompanhamento MOP,Analisar serviços especiais, custo unitário, prêmios elevados. Como a atualização do painel Operações é apenas 1x ao dia, baixo a base do BO sempre que há carga e alimento essa planilha pra que eu possa analisar a MOP antes de aprovar.,SAP BO + Excel,MOP/EMP,🪙 Importante,3.0</t>
-  </si>
-  <si>
-    <t>Acompanhamento EMP,Deixar registrado e acompanhar as medições de empreiteiro ao longo dos meses.,Excel,MOP/EMP,🪙 Importante,2.0</t>
-  </si>
-  <si>
-    <t>Planilha do Vivo,Analisar e projetar o custo de acordo com a realidade de cada obra. Analisando custos de contratos reais (ao invés de considerar o orçado) que ainda irão incorrer e principalmente para termos uma referência do custo final de obra e conseguir ter tratativas enquanto há tempo.,SAP BO + Excel,CUSTOS,🟢 Pouco Importante,4.0</t>
-  </si>
-  <si>
     <t>Painel Performance da Produção - ENGPDC029</t>
   </si>
   <si>
-    <t>Simulador Digital,Simulação de custos de terreno. ,Outra,CUSTOS,💎 Muito Importante,18.0</t>
-  </si>
-  <si>
-    <t>Gcron,Cronograma de obra para alimentar o simulador Digital.,Outra,CUSTOS,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>MRV obras,Lançamento de pedidos em terrenos,Outra,AUXÍLIO REGIONAL,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>MRV Terrenos,Visualização de terrenos e apoio ao DI,Outra,AUXÍLIO REGIONAL,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
-    <t>SAP,Aprovar requisição,Outra,AUXÍLIO REGIONAL,💎 Muito Importante,2.0</t>
-  </si>
-  <si>
-    <t>EXCEL,ACOMPANHAMENTO MO (SEM SISTEMA DA EMPRESA) E SEM FLUXO EXISTENTE COM DAE,Excel,SEQUENCIAMENTO MO,💎 Muito Importante,6.0</t>
-  </si>
-  <si>
-    <t>APLIATIVO TRELLO,ACOMPANHAMENTO DE DEMANDAS SOLICITADAS,Outra,PRODUTIVIDADE,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
-    <t>MONDEI.COM.BR,FERRAMENTA TOP PARA PAINEIS DIVERSOS PARA AS OBRAS E DEMANDAS SOLCITADAS AOS CONSULTORES E REPORT PARA GESTOR, QUE ATÉ O MOMENTO NAO EXISTIA NENHUMA FERRAMENTE COM GRAFICOS CONCOMITANTES,Outra,SEQUENCIAMENTO MO,💎 Muito Importante,3.0</t>
-  </si>
-  <si>
-    <t>Planilha ADM,Fazer acompanhamento dos custos com IA, IEQ e Custos Fixos.,Excel,CUSTOS,🪙 Importante,8.0</t>
-  </si>
-  <si>
-    <t>Planilhas de Análise MOP e EMP,Analisar produtividade e custo dos serviços MOP, bem como saúde financeira de EMP.,Power BI,MOP/EMP,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>Planilhas de Análise MOP e EMP,Analisar produtividade e custo dos serviços MOP, bem como saúde financeira de EMP.,Excel,MOP/EMP,💎 Muito Importante,8.0</t>
-  </si>
-  <si>
-    <t>Excel,Controle e Análises,Excel,ESTOQUE,💎 Muito Importante,120.0</t>
-  </si>
-  <si>
-    <t>Project,Cronograma,Outra,AUXÍLIO REGIONAL,🪙 Importante,40.0</t>
-  </si>
-  <si>
-    <t>excel,planilhas diversas ,Outra,AUXÍLIO REGIONAL,💎 Muito Importante,80.0</t>
-  </si>
-  <si>
-    <t>Sequenciamento e lista de funcionários.,Acompanhamento da mão de obra  antes e durante o sequenciamento e acompanhamento da mão de obra,Excel,SEQUENCIAMENTO MO,💎 Muito Importante,40.0</t>
-  </si>
-  <si>
-    <t>Admissões e desligamentos.,Acompanhar demissões e desligamentos da MOP.,Excel,TURNOVER,💎 Muito Importante,1.0</t>
-  </si>
-  <si>
-    <t>NOVO - Gst Prateleira,Acompanhamento de CPF/Déficit semana de MO,Excel,MOP/EMP,💎 Muito Importante,40.0</t>
-  </si>
-  <si>
-    <t>Recruta Simples,Armazenar informações de currículos.,Excel,MOP/EMP,💎 Muito Importante,40.0</t>
-  </si>
-  <si>
     <t>Painel Comunicação Integrada - ENGPDC028</t>
   </si>
   <si>
-    <t>OnePage ,Acompanhamento cpf EMP regional ,Excel,AUXÍLIO REGIONAL,💎 Muito Importante,20.0</t>
-  </si>
-  <si>
-    <t>PowerApps,Sequenciamento,Outra,SEQUENCIAMENTO MO,💎 Muito Importante,16.0</t>
-  </si>
-  <si>
-    <t>Déficit mão de obra ,Mapear os déficits ,Excel,AUXÍLIO REGIONAL,💎 Muito Importante,5.0</t>
-  </si>
-  <si>
     <t>Acho que tinha que ser ....</t>
   </si>
   <si>
@@ -949,6 +721,24 @@
     <t>Déficit mão de obra</t>
   </si>
   <si>
+    <t>Follow Up de Habite-se</t>
+  </si>
+  <si>
+    <t>PBO - Passagem de  Bastão de Obra</t>
+  </si>
+  <si>
+    <t>Painel Legal</t>
+  </si>
+  <si>
+    <t>PEV - Procedimento de Execução de Vistoria</t>
+  </si>
+  <si>
+    <t>CHECK-LIST PRE VISTORIA</t>
+  </si>
+  <si>
+    <t>OBRA SOFT</t>
+  </si>
+  <si>
     <t>Consultar dados</t>
   </si>
   <si>
@@ -1159,6 +949,24 @@
     <t>Mapear os déficits</t>
   </si>
   <si>
+    <t>HABITE-SE | Mapear e acompanhar as restrições e ações das obras antes e durante o desenvolvimento do processo de habite-se</t>
+  </si>
+  <si>
+    <t>HABITE-SE | Controle das documentações repassadas pelo DI para a obra após emissão de RI.</t>
+  </si>
+  <si>
+    <t>HABITE-SE | Continuidade do PBO</t>
+  </si>
+  <si>
+    <t>HABITE-SE | Estabelece as diretrizes e normativas observadas nas vistorias dos órgãos municipais/estaduais na fase de habite-se</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>RETESTE</t>
+  </si>
+  <si>
     <t>💎 Muito Importante</t>
   </si>
   <si>
@@ -1210,15 +1018,24 @@
     <t>bem como saúde financeira de EMP.</t>
   </si>
   <si>
+    <t>OUTROS</t>
+  </si>
+  <si>
+    <t>acompanhamento das documentações</t>
+  </si>
+  <si>
+    <t>fornecendo os pontos de analise e ações necessárias</t>
+  </si>
+  <si>
+    <t>MAPEAN</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>OUTROS</t>
-  </si>
-  <si>
     <t>MOP/EMP</t>
   </si>
   <si>
@@ -1264,6 +1081,9 @@
     <t>TURNOVER</t>
   </si>
   <si>
+    <t>validades e condicionantes até o início do Follow Up de Habite-se</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
@@ -1288,6 +1108,15 @@
     <t>baixo a base do BO sempre que há carga e alimento essa planilha pra que eu possa analisar a MOP antes de aprovar.</t>
   </si>
   <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
@@ -1310,12 +1139,6 @@
   </si>
   <si>
     <t>30.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
   </si>
   <si>
     <t>Projeção</t>
@@ -1694,7 +1517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1754,13 +1577,10 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1768,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1779,13 +1599,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1793,10 +1610,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1804,13 +1621,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1818,10 +1632,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1829,13 +1643,10 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1843,10 +1654,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1854,13 +1665,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1868,10 +1676,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1879,13 +1687,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1893,10 +1698,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1904,13 +1709,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1918,13 +1720,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1932,16 +1734,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1949,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1963,16 +1762,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1980,13 +1776,13 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1994,16 +1790,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2011,13 +1804,13 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2025,16 +1818,13 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2042,13 +1832,13 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -2056,16 +1846,13 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2073,13 +1860,13 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2087,13 +1874,13 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2101,25 +1888,22 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>166</v>
       </c>
       <c r="H28" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="I28" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="J28" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2127,25 +1911,22 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>243</v>
+        <v>167</v>
       </c>
       <c r="H29" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="I29" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="J29" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2153,13 +1934,13 @@
         <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2167,28 +1948,25 @@
         <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
         <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="H31" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="I31" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2196,13 +1974,13 @@
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2210,28 +1988,25 @@
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="K33" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2239,13 +2014,13 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2253,13 +2028,13 @@
         <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2267,31 +2042,28 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="H36" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J36" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K36" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L36" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2299,31 +2071,28 @@
         <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G37" t="s">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="H37" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="I37" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="J37" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K37" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2331,13 +2100,13 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2345,31 +2114,28 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="H39" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="I39" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J39" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K39" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2377,13 +2143,13 @@
         <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2391,28 +2157,25 @@
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="I41" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K41" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2420,28 +2183,25 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="I42" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J42" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2449,25 +2209,22 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J43" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L43" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2475,13 +2232,13 @@
         <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2489,13 +2246,13 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2503,31 +2260,28 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="H46" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c r="I46" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J46" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="K46" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2535,31 +2289,28 @@
         <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="H47" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="I47" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K47" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L47" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2567,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2581,13 +2332,13 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2595,13 +2346,13 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2609,13 +2360,13 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2623,13 +2374,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2637,31 +2388,28 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="J53" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2669,31 +2417,28 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="I54" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J54" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K54" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L54" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2701,19 +2446,19 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2721,16 +2466,16 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2738,16 +2483,16 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F57" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2755,16 +2500,16 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2772,16 +2517,16 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -2789,31 +2534,28 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="H60" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="I60" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J60" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L60" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -2821,31 +2563,28 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="H61" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="I61" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J61" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K61" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L61" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -2853,31 +2592,28 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="H62" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="I62" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J62" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K62" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L62" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -2885,19 +2621,19 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -2905,16 +2641,16 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F64" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -2922,16 +2658,16 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -2939,16 +2675,16 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -2956,16 +2692,16 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -2973,31 +2709,28 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="H68" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
       <c r="I68" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J68" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L68" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3005,16 +2738,16 @@
         <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F69" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3022,16 +2755,16 @@
         <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3039,16 +2772,16 @@
         <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3056,16 +2789,16 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F72" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3073,31 +2806,28 @@
         <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="H73" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="I73" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J73" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K73" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L73" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3105,31 +2835,28 @@
         <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="H74" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="I74" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="J74" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K74" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L74" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3137,16 +2864,16 @@
         <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F75" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3154,16 +2881,16 @@
         <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F76" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3171,16 +2898,16 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D77" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3188,31 +2915,28 @@
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="H78" t="s">
+        <v>252</v>
+      </c>
+      <c r="I78" t="s">
         <v>322</v>
       </c>
-      <c r="I78" t="s">
-        <v>386</v>
-      </c>
       <c r="J78" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K78" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L78" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3220,31 +2944,28 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="H79" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="I79" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J79" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K79" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L79" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3252,16 +2973,16 @@
         <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F80" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3269,16 +2990,16 @@
         <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3286,16 +3007,16 @@
         <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C82" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3303,31 +3024,28 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>82</v>
-      </c>
-      <c r="D83" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="H83" t="s">
+        <v>252</v>
+      </c>
+      <c r="I83" t="s">
         <v>322</v>
       </c>
-      <c r="I83" t="s">
-        <v>386</v>
-      </c>
       <c r="J83" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K83" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L83" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -3335,16 +3053,16 @@
         <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -3352,16 +3070,16 @@
         <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -3369,16 +3087,16 @@
         <v>21</v>
       </c>
       <c r="B86" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D86" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F86" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -3386,31 +3104,28 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
-      </c>
-      <c r="D87" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="H87" t="s">
+        <v>252</v>
+      </c>
+      <c r="I87" t="s">
         <v>322</v>
       </c>
-      <c r="I87" t="s">
-        <v>386</v>
-      </c>
       <c r="J87" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="K87" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L87" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -3418,31 +3133,28 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
-      </c>
-      <c r="D88" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="H88" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="I88" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J88" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K88" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L88" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -3450,16 +3162,16 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -3467,16 +3179,16 @@
         <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C90" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D90" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F90" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -3484,16 +3196,16 @@
         <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C91" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -3501,31 +3213,28 @@
         <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G92" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H92" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
       <c r="I92" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J92" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K92" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L92" t="s">
-        <v>425</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -3533,16 +3242,16 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C93" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F93" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -3550,16 +3259,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F94" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -3567,16 +3276,16 @@
         <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D95" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -3584,31 +3293,28 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C96" t="s">
-        <v>82</v>
-      </c>
-      <c r="D96" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H96" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="I96" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J96" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K96" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L96" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -3616,31 +3322,28 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C97" t="s">
-        <v>82</v>
-      </c>
-      <c r="D97" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H97" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
       <c r="I97" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J97" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K97" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L97" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -3648,16 +3351,16 @@
         <v>12</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D98" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -3665,16 +3368,16 @@
         <v>12</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D99" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F99" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -3682,16 +3385,16 @@
         <v>12</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D100" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F100" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -3699,31 +3402,28 @@
         <v>12</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D101" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G101" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H101" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c r="I101" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="J101" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K101" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L101" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -3731,31 +3431,28 @@
         <v>12</v>
       </c>
       <c r="B102" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D102" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H102" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="I102" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J102" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K102" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L102" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -3763,16 +3460,16 @@
         <v>12</v>
       </c>
       <c r="B103" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F103" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -3780,16 +3477,16 @@
         <v>12</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D104" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -3797,16 +3494,16 @@
         <v>12</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F105" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -3814,31 +3511,28 @@
         <v>12</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>82</v>
-      </c>
-      <c r="D106" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H106" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="I106" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J106" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K106" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L106" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -3846,31 +3540,28 @@
         <v>12</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>82</v>
-      </c>
-      <c r="D107" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="H107" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="I107" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J107" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K107" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L107" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -3878,16 +3569,16 @@
         <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D108" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F108" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -3895,16 +3586,16 @@
         <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F109" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -3912,16 +3603,16 @@
         <v>12</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F110" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -3929,31 +3620,28 @@
         <v>12</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
-        <v>82</v>
-      </c>
-      <c r="D111" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="G111" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H111" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="I111" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J111" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K111" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L111" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -3961,31 +3649,28 @@
         <v>12</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>82</v>
-      </c>
-      <c r="D112" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="G112" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="H112" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
       <c r="I112" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J112" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K112" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L112" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -3993,16 +3678,16 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D113" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F113" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -4010,16 +3695,16 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C114" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -4027,16 +3712,16 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F115" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -4044,31 +3729,28 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>82</v>
-      </c>
-      <c r="D116" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="G116" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H116" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
       <c r="I116" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="J116" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="K116" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L116" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -4076,16 +3758,16 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F117" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -4093,16 +3775,16 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D118" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F118" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -4110,31 +3792,28 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
-        <v>82</v>
-      </c>
-      <c r="D119" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="G119" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="H119" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="I119" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J119" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K119" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L119" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -4142,31 +3821,28 @@
         <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C120" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G120" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="H120" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="I120" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J120" t="s">
-        <v>403</v>
+        <v>342</v>
       </c>
       <c r="K120" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L120" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -4174,16 +3850,16 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C121" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D121" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F121" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -4191,16 +3867,16 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -4208,16 +3884,16 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D123" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -4225,16 +3901,16 @@
         <v>22</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D124" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F124" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -4242,31 +3918,28 @@
         <v>22</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>82</v>
-      </c>
-      <c r="D125" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G125" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="H125" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="I125" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J125" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K125" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L125" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -4274,16 +3947,16 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F126" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -4291,16 +3964,16 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F127" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -4308,31 +3981,28 @@
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>82</v>
-      </c>
-      <c r="D128" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="G128" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="H128" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="I128" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J128" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K128" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L128" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -4340,31 +4010,28 @@
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>82</v>
-      </c>
-      <c r="D129" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G129" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="H129" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="I129" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J129" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K129" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L129" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -4372,16 +4039,16 @@
         <v>24</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C130" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D130" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F130" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -4389,19 +4056,19 @@
         <v>24</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D131" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E131" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -4409,16 +4076,16 @@
         <v>24</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C132" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F132" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -4426,19 +4093,19 @@
         <v>24</v>
       </c>
       <c r="B133" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E133" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -4446,16 +4113,16 @@
         <v>24</v>
       </c>
       <c r="B134" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C134" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F134" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -4463,19 +4130,19 @@
         <v>24</v>
       </c>
       <c r="B135" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D135" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E135" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="F135" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -4483,16 +4150,16 @@
         <v>24</v>
       </c>
       <c r="B136" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C136" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D136" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F136" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -4500,16 +4167,16 @@
         <v>24</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C137" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D137" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F137" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -4517,19 +4184,19 @@
         <v>24</v>
       </c>
       <c r="B138" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E138" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="F138" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -4537,19 +4204,19 @@
         <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C139" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E139" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="F139" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -4557,16 +4224,16 @@
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D140" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F140" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -4574,16 +4241,16 @@
         <v>24</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D141" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F141" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -4591,31 +4258,28 @@
         <v>24</v>
       </c>
       <c r="B142" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C142" t="s">
-        <v>82</v>
-      </c>
-      <c r="D142" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="G142" t="s">
-        <v>267</v>
+        <v>191</v>
       </c>
       <c r="H142" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="I142" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J142" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K142" t="s">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="L142" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -4623,31 +4287,28 @@
         <v>24</v>
       </c>
       <c r="B143" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
-      </c>
-      <c r="D143" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="G143" t="s">
-        <v>268</v>
+        <v>192</v>
       </c>
       <c r="H143" t="s">
-        <v>334</v>
+        <v>264</v>
       </c>
       <c r="I143" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J143" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K143" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L143" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -4655,31 +4316,28 @@
         <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
-      </c>
-      <c r="D144" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="G144" t="s">
-        <v>269</v>
+        <v>193</v>
       </c>
       <c r="H144" t="s">
-        <v>335</v>
+        <v>265</v>
       </c>
       <c r="I144" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J144" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K144" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L144" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -4687,31 +4345,28 @@
         <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="G145" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="H145" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="I145" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J145" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="K145" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L145" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -4719,31 +4374,28 @@
         <v>24</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>82</v>
-      </c>
-      <c r="D146" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="G146" t="s">
-        <v>271</v>
+        <v>195</v>
       </c>
       <c r="H146" t="s">
-        <v>337</v>
+        <v>267</v>
       </c>
       <c r="I146" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J146" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="K146" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L146" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -4751,31 +4403,28 @@
         <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
-        <v>82</v>
-      </c>
-      <c r="D147" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="G147" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="H147" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="I147" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="J147" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K147" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L147" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -4783,31 +4432,28 @@
         <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>82</v>
-      </c>
-      <c r="D148" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="G148" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="H148" t="s">
+        <v>269</v>
+      </c>
+      <c r="I148" t="s">
+        <v>319</v>
+      </c>
+      <c r="J148" t="s">
+        <v>343</v>
+      </c>
+      <c r="K148" t="s">
+        <v>317</v>
+      </c>
+      <c r="L148" t="s">
         <v>339</v>
-      </c>
-      <c r="I148" t="s">
-        <v>383</v>
-      </c>
-      <c r="J148" t="s">
-        <v>404</v>
-      </c>
-      <c r="K148" t="s">
-        <v>381</v>
-      </c>
-      <c r="L148" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -4815,31 +4461,28 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C149" t="s">
-        <v>82</v>
-      </c>
-      <c r="D149" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="G149" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="H149" t="s">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="I149" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="J149" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="K149" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="L149" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -4847,31 +4490,28 @@
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C150" t="s">
-        <v>82</v>
-      </c>
-      <c r="D150" t="s">
-        <v>141</v>
+        <v>89</v>
       </c>
       <c r="G150" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="H150" t="s">
+        <v>271</v>
+      </c>
+      <c r="I150" t="s">
+        <v>319</v>
+      </c>
+      <c r="J150" t="s">
         <v>341</v>
       </c>
-      <c r="I150" t="s">
-        <v>383</v>
-      </c>
-      <c r="J150" t="s">
-        <v>402</v>
-      </c>
       <c r="K150" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L150" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -4879,19 +4519,19 @@
         <v>25</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C151" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D151" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E151" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="F151" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -4899,19 +4539,19 @@
         <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C152" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D152" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E152" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="F152" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -4919,19 +4559,19 @@
         <v>25</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C153" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D153" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E153" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="F153" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -4939,19 +4579,19 @@
         <v>25</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C154" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D154" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E154" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="F154" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -4959,19 +4599,19 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C155" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D155" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E155" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="F155" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -4979,19 +4619,19 @@
         <v>25</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D156" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E156" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="F156" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -4999,19 +4639,19 @@
         <v>25</v>
       </c>
       <c r="B157" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D157" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E157" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="F157" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -5019,19 +4659,19 @@
         <v>25</v>
       </c>
       <c r="B158" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C158" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D158" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E158" t="s">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="F158" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -5039,19 +4679,19 @@
         <v>25</v>
       </c>
       <c r="B159" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C159" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D159" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E159" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="F159" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -5059,31 +4699,28 @@
         <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C160" t="s">
-        <v>82</v>
-      </c>
-      <c r="D160" t="s">
-        <v>142</v>
+        <v>89</v>
       </c>
       <c r="G160" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="H160" t="s">
-        <v>342</v>
+        <v>272</v>
       </c>
       <c r="I160" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J160" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K160" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L160" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="161" spans="1:12">
@@ -5091,31 +4728,28 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C161" t="s">
-        <v>82</v>
-      </c>
-      <c r="D161" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="G161" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
       <c r="H161" t="s">
-        <v>343</v>
+        <v>273</v>
       </c>
       <c r="I161" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="J161" t="s">
-        <v>408</v>
+        <v>347</v>
       </c>
       <c r="K161" t="s">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="L161" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
     </row>
     <row r="162" spans="1:12">
@@ -5123,31 +4757,28 @@
         <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C162" t="s">
-        <v>82</v>
-      </c>
-      <c r="D162" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="G162" t="s">
-        <v>278</v>
+        <v>202</v>
       </c>
       <c r="H162" t="s">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="I162" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="J162" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="K162" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="L162" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
     </row>
     <row r="163" spans="1:12">
@@ -5155,31 +4786,28 @@
         <v>25</v>
       </c>
       <c r="B163" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C163" t="s">
-        <v>82</v>
-      </c>
-      <c r="D163" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="G163" t="s">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="H163" t="s">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="I163" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J163" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K163" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L163" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="164" spans="1:12">
@@ -5187,31 +4815,28 @@
         <v>25</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C164" t="s">
-        <v>82</v>
-      </c>
-      <c r="D164" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="G164" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="H164" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="I164" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J164" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K164" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L164" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="165" spans="1:12">
@@ -5219,31 +4844,28 @@
         <v>25</v>
       </c>
       <c r="B165" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
-      </c>
-      <c r="D165" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="G165" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="H165" t="s">
-        <v>347</v>
+        <v>277</v>
       </c>
       <c r="I165" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J165" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K165" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L165" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="166" spans="1:12">
@@ -5251,31 +4873,28 @@
         <v>25</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C166" t="s">
-        <v>82</v>
-      </c>
-      <c r="D166" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="G166" t="s">
-        <v>282</v>
+        <v>206</v>
       </c>
       <c r="H166" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
       <c r="I166" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J166" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K166" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L166" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="167" spans="1:12">
@@ -5283,31 +4902,28 @@
         <v>25</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C167" t="s">
-        <v>82</v>
-      </c>
-      <c r="D167" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="G167" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="H167" t="s">
-        <v>349</v>
+        <v>279</v>
       </c>
       <c r="I167" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J167" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="K167" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L167" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="168" spans="1:12">
@@ -5315,31 +4931,28 @@
         <v>25</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C168" t="s">
-        <v>82</v>
-      </c>
-      <c r="D168" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="G168" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="H168" t="s">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="I168" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="J168" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="K168" t="s">
-        <v>421</v>
+        <v>361</v>
       </c>
       <c r="L168" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="169" spans="1:12">
@@ -5347,31 +4960,28 @@
         <v>25</v>
       </c>
       <c r="B169" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C169" t="s">
-        <v>82</v>
-      </c>
-      <c r="D169" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="G169" t="s">
-        <v>285</v>
+        <v>209</v>
       </c>
       <c r="H169" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="I169" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J169" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K169" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L169" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="170" spans="1:12">
@@ -5379,31 +4989,28 @@
         <v>25</v>
       </c>
       <c r="B170" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C170" t="s">
-        <v>82</v>
-      </c>
-      <c r="D170" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="G170" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="H170" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="I170" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J170" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K170" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L170" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="171" spans="1:12">
@@ -5411,31 +5018,28 @@
         <v>25</v>
       </c>
       <c r="B171" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C171" t="s">
-        <v>82</v>
-      </c>
-      <c r="D171" t="s">
-        <v>153</v>
+        <v>89</v>
       </c>
       <c r="G171" t="s">
-        <v>287</v>
+        <v>211</v>
       </c>
       <c r="H171" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="I171" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J171" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K171" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L171" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
     </row>
     <row r="172" spans="1:12">
@@ -5443,16 +5047,16 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C172" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D172" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F172" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:12">
@@ -5460,19 +5064,19 @@
         <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C173" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D173" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E173" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="F173" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -5480,19 +5084,19 @@
         <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C174" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D174" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E174" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="F174" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:12">
@@ -5500,16 +5104,16 @@
         <v>26</v>
       </c>
       <c r="B175" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C175" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -5517,16 +5121,16 @@
         <v>26</v>
       </c>
       <c r="B176" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C176" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D176" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F176" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:12">
@@ -5534,16 +5138,16 @@
         <v>26</v>
       </c>
       <c r="B177" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C177" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D177" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F177" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -5551,19 +5155,19 @@
         <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C178" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D178" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E178" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="F178" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -5571,19 +5175,19 @@
         <v>26</v>
       </c>
       <c r="B179" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C179" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D179" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E179" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="F179" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180" spans="1:12">
@@ -5591,19 +5195,19 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C180" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D180" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E180" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
       <c r="F180" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -5611,19 +5215,19 @@
         <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C181" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D181" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E181" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="F181" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -5631,16 +5235,16 @@
         <v>26</v>
       </c>
       <c r="B182" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C182" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D182" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F182" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -5648,19 +5252,19 @@
         <v>26</v>
       </c>
       <c r="B183" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C183" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D183" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E183" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="F183" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -5668,31 +5272,28 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C184" t="s">
-        <v>82</v>
-      </c>
-      <c r="D184" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="G184" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="H184" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="I184" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="J184" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K184" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L184" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -5700,31 +5301,28 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C185" t="s">
-        <v>82</v>
-      </c>
-      <c r="D185" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="G185" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="H185" t="s">
-        <v>355</v>
+        <v>285</v>
       </c>
       <c r="I185" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J185" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K185" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L185" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -5732,31 +5330,28 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C186" t="s">
-        <v>82</v>
-      </c>
-      <c r="D186" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="G186" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="H186" t="s">
-        <v>356</v>
+        <v>286</v>
       </c>
       <c r="I186" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J186" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="K186" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L186" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -5764,19 +5359,19 @@
         <v>27</v>
       </c>
       <c r="B187" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C187" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D187" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E187" t="s">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="F187" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -5784,19 +5379,19 @@
         <v>27</v>
       </c>
       <c r="B188" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D188" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E188" t="s">
-        <v>208</v>
+        <v>132</v>
       </c>
       <c r="F188" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -5804,16 +5399,16 @@
         <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C189" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D189" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F189" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -5821,16 +5416,16 @@
         <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C190" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D190" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -5838,19 +5433,19 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C191" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E191" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="F191" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -5858,16 +5453,16 @@
         <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C192" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D192" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F192" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -5875,19 +5470,19 @@
         <v>27</v>
       </c>
       <c r="B193" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C193" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D193" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E193" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="F193" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -5895,16 +5490,16 @@
         <v>27</v>
       </c>
       <c r="B194" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C194" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D194" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F194" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -5912,16 +5507,16 @@
         <v>27</v>
       </c>
       <c r="B195" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D195" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F195" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -5929,31 +5524,28 @@
         <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C196" t="s">
-        <v>82</v>
-      </c>
-      <c r="D196" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="G196" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="H196" t="s">
-        <v>357</v>
+        <v>287</v>
       </c>
       <c r="I196" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="J196" t="s">
-        <v>411</v>
+        <v>350</v>
       </c>
       <c r="K196" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="L196" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:12">
@@ -5961,31 +5553,28 @@
         <v>27</v>
       </c>
       <c r="B197" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C197" t="s">
-        <v>82</v>
-      </c>
-      <c r="D197" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G197" t="s">
-        <v>290</v>
+        <v>214</v>
       </c>
       <c r="H197" t="s">
-        <v>358</v>
+        <v>288</v>
       </c>
       <c r="I197" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="J197" t="s">
-        <v>412</v>
+        <v>351</v>
       </c>
       <c r="K197" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="L197" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -5993,31 +5582,28 @@
         <v>27</v>
       </c>
       <c r="B198" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C198" t="s">
-        <v>82</v>
-      </c>
-      <c r="D198" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="G198" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="H198" t="s">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="I198" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J198" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K198" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L198" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -6025,31 +5611,28 @@
         <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C199" t="s">
-        <v>82</v>
-      </c>
-      <c r="D199" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="G199" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="H199" t="s">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="I199" t="s">
-        <v>386</v>
+        <v>322</v>
       </c>
       <c r="J199" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K199" t="s">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="L199" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -6057,19 +5640,19 @@
         <v>28</v>
       </c>
       <c r="B200" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C200" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D200" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E200" t="s">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="F200" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -6077,19 +5660,19 @@
         <v>28</v>
       </c>
       <c r="B201" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C201" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D201" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="F201" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -6097,19 +5680,19 @@
         <v>28</v>
       </c>
       <c r="B202" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C202" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D202" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E202" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="F202" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -6117,19 +5700,19 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C203" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D203" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E203" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
       <c r="F203" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -6137,19 +5720,19 @@
         <v>28</v>
       </c>
       <c r="B204" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C204" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D204" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E204" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="F204" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -6157,19 +5740,19 @@
         <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C205" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D205" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E205" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="F205" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -6177,19 +5760,19 @@
         <v>28</v>
       </c>
       <c r="B206" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D206" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E206" t="s">
-        <v>216</v>
+        <v>140</v>
       </c>
       <c r="F206" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -6197,19 +5780,19 @@
         <v>28</v>
       </c>
       <c r="B207" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D207" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E207" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="F207" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -6217,19 +5800,19 @@
         <v>28</v>
       </c>
       <c r="B208" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C208" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D208" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E208" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="F208" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -6237,31 +5820,28 @@
         <v>28</v>
       </c>
       <c r="B209" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C209" t="s">
-        <v>82</v>
-      </c>
-      <c r="D209" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="G209" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="H209" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="I209" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J209" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K209" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L209" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:12">
@@ -6269,31 +5849,28 @@
         <v>28</v>
       </c>
       <c r="B210" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C210" t="s">
-        <v>82</v>
-      </c>
-      <c r="D210" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="G210" t="s">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="H210" t="s">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="I210" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J210" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="K210" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L210" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="211" spans="1:12">
@@ -6301,31 +5878,28 @@
         <v>28</v>
       </c>
       <c r="B211" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>82</v>
-      </c>
-      <c r="D211" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="G211" t="s">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="H211" t="s">
-        <v>363</v>
+        <v>293</v>
       </c>
       <c r="I211" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J211" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K211" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L211" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:12">
@@ -6333,31 +5907,28 @@
         <v>28</v>
       </c>
       <c r="B212" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s">
-        <v>82</v>
-      </c>
-      <c r="D212" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="G212" t="s">
-        <v>296</v>
+        <v>220</v>
       </c>
       <c r="H212" t="s">
-        <v>364</v>
+        <v>294</v>
       </c>
       <c r="I212" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J212" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K212" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L212" t="s">
-        <v>427</v>
+        <v>370</v>
       </c>
     </row>
     <row r="213" spans="1:12">
@@ -6365,31 +5936,28 @@
         <v>28</v>
       </c>
       <c r="B213" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C213" t="s">
-        <v>82</v>
-      </c>
-      <c r="D213" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="G213" t="s">
-        <v>297</v>
+        <v>221</v>
       </c>
       <c r="H213" t="s">
-        <v>365</v>
+        <v>295</v>
       </c>
       <c r="I213" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J213" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K213" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L213" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
     </row>
     <row r="214" spans="1:12">
@@ -6397,16 +5965,16 @@
         <v>29</v>
       </c>
       <c r="B214" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C214" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D214" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F214" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="215" spans="1:12">
@@ -6414,16 +5982,16 @@
         <v>29</v>
       </c>
       <c r="B215" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C215" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D215" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F215" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="216" spans="1:12">
@@ -6431,16 +5999,16 @@
         <v>29</v>
       </c>
       <c r="B216" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C216" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D216" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F216" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:12">
@@ -6448,16 +6016,16 @@
         <v>29</v>
       </c>
       <c r="B217" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C217" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D217" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F217" t="s">
-        <v>233</v>
+        <v>157</v>
       </c>
     </row>
     <row r="218" spans="1:12">
@@ -6465,16 +6033,16 @@
         <v>29</v>
       </c>
       <c r="B218" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C218" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D218" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F218" t="s">
-        <v>239</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:12">
@@ -6482,31 +6050,28 @@
         <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C219" t="s">
-        <v>82</v>
-      </c>
-      <c r="D219" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="G219" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="H219" t="s">
-        <v>366</v>
+        <v>296</v>
       </c>
       <c r="I219" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J219" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K219" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L219" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -6514,31 +6079,28 @@
         <v>29</v>
       </c>
       <c r="B220" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C220" t="s">
-        <v>82</v>
-      </c>
-      <c r="D220" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="G220" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="H220" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="I220" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J220" t="s">
-        <v>413</v>
+        <v>352</v>
       </c>
       <c r="K220" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L220" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="221" spans="1:12">
@@ -6546,31 +6108,28 @@
         <v>29</v>
       </c>
       <c r="B221" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C221" t="s">
-        <v>82</v>
-      </c>
-      <c r="D221" t="s">
-        <v>170</v>
+        <v>89</v>
       </c>
       <c r="G221" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="H221" t="s">
-        <v>368</v>
+        <v>298</v>
       </c>
       <c r="I221" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="J221" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="K221" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="L221" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="222" spans="1:12">
@@ -6578,16 +6137,16 @@
         <v>30</v>
       </c>
       <c r="B222" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C222" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D222" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F222" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="223" spans="1:12">
@@ -6595,16 +6154,16 @@
         <v>30</v>
       </c>
       <c r="B223" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C223" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D223" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F223" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="224" spans="1:12">
@@ -6612,16 +6171,16 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C224" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D224" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F224" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6629,16 +6188,16 @@
         <v>30</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C225" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D225" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F225" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6646,16 +6205,16 @@
         <v>30</v>
       </c>
       <c r="B226" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C226" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D226" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F226" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6663,16 +6222,16 @@
         <v>30</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C227" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D227" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F227" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6680,16 +6239,16 @@
         <v>30</v>
       </c>
       <c r="B228" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C228" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D228" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F228" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6697,16 +6256,16 @@
         <v>30</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C229" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D229" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F229" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6714,16 +6273,16 @@
         <v>30</v>
       </c>
       <c r="B230" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C230" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D230" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F230" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6731,16 +6290,16 @@
         <v>30</v>
       </c>
       <c r="B231" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C231" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D231" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F231" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6748,16 +6307,16 @@
         <v>30</v>
       </c>
       <c r="B232" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C232" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F232" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6765,16 +6324,16 @@
         <v>30</v>
       </c>
       <c r="B233" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C233" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D233" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="F233" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6782,16 +6341,16 @@
         <v>30</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C234" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D234" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="F234" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6799,16 +6358,13 @@
         <v>30</v>
       </c>
       <c r="B235" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C235" t="s">
-        <v>82</v>
-      </c>
-      <c r="D235" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G235" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6816,19 +6372,19 @@
         <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C236" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D236" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E236" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F236" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6836,16 +6392,16 @@
         <v>31</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C237" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D237" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F237" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6853,16 +6409,16 @@
         <v>31</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C238" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D238" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F238" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6870,16 +6426,16 @@
         <v>31</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C239" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D239" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F239" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6887,16 +6443,16 @@
         <v>31</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C240" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D240" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F240" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241" spans="1:12">
@@ -6904,16 +6460,16 @@
         <v>31</v>
       </c>
       <c r="B241" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C241" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D241" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F241" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -6921,19 +6477,19 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C242" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D242" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E242" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="F242" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -6941,19 +6497,19 @@
         <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C243" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D243" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E243" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="F243" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -6961,16 +6517,16 @@
         <v>31</v>
       </c>
       <c r="B244" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C244" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D244" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F244" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -6978,16 +6534,16 @@
         <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C245" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D245" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F245" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -6995,16 +6551,16 @@
         <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C246" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D246" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F246" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -7012,31 +6568,28 @@
         <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C247" t="s">
-        <v>82</v>
-      </c>
-      <c r="D247" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G247" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="H247" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="I247" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="J247" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="K247" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="L247" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -7044,31 +6597,28 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C248" t="s">
-        <v>82</v>
-      </c>
-      <c r="D248" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="G248" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="H248" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="I248" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="J248" t="s">
-        <v>383</v>
+        <v>319</v>
       </c>
       <c r="K248" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="L248" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -7076,19 +6626,19 @@
         <v>31</v>
       </c>
       <c r="B249" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C249" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D249" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E249" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F249" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -7096,16 +6646,16 @@
         <v>31</v>
       </c>
       <c r="B250" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C250" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D250" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F250" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -7113,16 +6663,16 @@
         <v>31</v>
       </c>
       <c r="B251" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C251" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D251" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F251" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -7130,16 +6680,16 @@
         <v>31</v>
       </c>
       <c r="B252" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C252" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D252" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F252" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -7147,16 +6697,16 @@
         <v>31</v>
       </c>
       <c r="B253" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C253" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D253" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F253" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -7164,16 +6714,16 @@
         <v>31</v>
       </c>
       <c r="B254" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C254" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D254" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F254" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -7181,19 +6731,19 @@
         <v>31</v>
       </c>
       <c r="B255" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C255" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D255" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E255" t="s">
-        <v>220</v>
+        <v>144</v>
       </c>
       <c r="F255" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -7201,19 +6751,19 @@
         <v>31</v>
       </c>
       <c r="B256" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C256" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D256" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E256" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="F256" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -7221,16 +6771,16 @@
         <v>31</v>
       </c>
       <c r="B257" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C257" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D257" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F257" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -7238,16 +6788,16 @@
         <v>31</v>
       </c>
       <c r="B258" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C258" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D258" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="F258" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -7255,16 +6805,16 @@
         <v>31</v>
       </c>
       <c r="B259" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C259" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D259" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F259" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -7272,31 +6822,28 @@
         <v>31</v>
       </c>
       <c r="B260" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C260" t="s">
-        <v>82</v>
-      </c>
-      <c r="D260" t="s">
-        <v>171</v>
+        <v>89</v>
       </c>
       <c r="G260" t="s">
-        <v>301</v>
+        <v>225</v>
       </c>
       <c r="H260" t="s">
-        <v>369</v>
+        <v>299</v>
       </c>
       <c r="I260" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="J260" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="K260" t="s">
-        <v>404</v>
+        <v>343</v>
       </c>
       <c r="L260" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -7304,31 +6851,28 @@
         <v>31</v>
       </c>
       <c r="B261" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C261" t="s">
-        <v>82</v>
-      </c>
-      <c r="D261" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="G261" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
       <c r="H261" t="s">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="I261" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="J261" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="K261" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="L261" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -7336,19 +6880,19 @@
         <v>32</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C262" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D262" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E262" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="F262" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -7356,19 +6900,19 @@
         <v>32</v>
       </c>
       <c r="B263" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C263" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D263" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E263" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="F263" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -7376,16 +6920,16 @@
         <v>32</v>
       </c>
       <c r="B264" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C264" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D264" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F264" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -7393,19 +6937,19 @@
         <v>32</v>
       </c>
       <c r="B265" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C265" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D265" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E265" t="s">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c r="F265" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -7413,19 +6957,19 @@
         <v>32</v>
       </c>
       <c r="B266" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C266" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D266" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E266" t="s">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="F266" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -7433,19 +6977,19 @@
         <v>32</v>
       </c>
       <c r="B267" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C267" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D267" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E267" t="s">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="F267" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -7453,16 +6997,16 @@
         <v>32</v>
       </c>
       <c r="B268" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C268" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D268" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F268" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -7470,16 +7014,16 @@
         <v>32</v>
       </c>
       <c r="B269" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C269" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D269" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F269" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -7487,19 +7031,19 @@
         <v>32</v>
       </c>
       <c r="B270" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C270" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D270" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E270" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="F270" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -7507,19 +7051,19 @@
         <v>32</v>
       </c>
       <c r="B271" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C271" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D271" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E271" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="F271" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -7527,16 +7071,16 @@
         <v>32</v>
       </c>
       <c r="B272" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C272" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D272" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F272" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -7544,16 +7088,13 @@
         <v>32</v>
       </c>
       <c r="B273" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C273" t="s">
-        <v>82</v>
-      </c>
-      <c r="D273" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G273" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -7561,19 +7102,19 @@
         <v>33</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C274" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D274" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E274" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="F274" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -7581,19 +7122,19 @@
         <v>33</v>
       </c>
       <c r="B275" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C275" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D275" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E275" t="s">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="F275" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -7601,16 +7142,16 @@
         <v>33</v>
       </c>
       <c r="B276" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C276" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D276" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F276" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -7618,31 +7159,28 @@
         <v>33</v>
       </c>
       <c r="B277" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C277" t="s">
-        <v>82</v>
-      </c>
-      <c r="D277" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="G277" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="H277" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="I277" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J277" t="s">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="K277" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L277" t="s">
-        <v>438</v>
+        <v>379</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -7650,16 +7188,16 @@
         <v>34</v>
       </c>
       <c r="B278" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C278" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D278" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F278" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -7667,16 +7205,16 @@
         <v>34</v>
       </c>
       <c r="B279" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C279" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D279" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F279" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -7684,16 +7222,16 @@
         <v>34</v>
       </c>
       <c r="B280" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C280" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D280" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F280" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -7701,16 +7239,16 @@
         <v>34</v>
       </c>
       <c r="B281" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C281" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D281" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F281" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -7718,16 +7256,16 @@
         <v>34</v>
       </c>
       <c r="B282" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C282" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D282" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F282" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -7735,16 +7273,16 @@
         <v>34</v>
       </c>
       <c r="B283" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C283" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D283" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F283" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -7752,16 +7290,16 @@
         <v>34</v>
       </c>
       <c r="B284" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C284" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D284" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F284" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
     </row>
     <row r="285" spans="1:12">
@@ -7769,31 +7307,28 @@
         <v>34</v>
       </c>
       <c r="B285" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C285" t="s">
-        <v>82</v>
-      </c>
-      <c r="D285" t="s">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="G285" t="s">
-        <v>304</v>
+        <v>228</v>
       </c>
       <c r="H285" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="I285" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J285" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K285" t="s">
-        <v>382</v>
+        <v>318</v>
       </c>
       <c r="L285" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="286" spans="1:12">
@@ -7801,31 +7336,28 @@
         <v>34</v>
       </c>
       <c r="B286" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C286" t="s">
-        <v>82</v>
-      </c>
-      <c r="D286" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="G286" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="H286" t="s">
-        <v>373</v>
+        <v>303</v>
       </c>
       <c r="I286" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J286" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K286" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L286" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
     </row>
     <row r="287" spans="1:12">
@@ -7833,16 +7365,16 @@
         <v>35</v>
       </c>
       <c r="B287" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C287" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D287" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F287" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -7850,16 +7382,16 @@
         <v>35</v>
       </c>
       <c r="B288" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C288" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D288" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F288" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="289" spans="1:12">
@@ -7867,16 +7399,16 @@
         <v>35</v>
       </c>
       <c r="B289" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C289" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D289" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F289" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="290" spans="1:12">
@@ -7884,16 +7416,16 @@
         <v>35</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C290" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D290" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F290" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="291" spans="1:12">
@@ -7901,16 +7433,16 @@
         <v>35</v>
       </c>
       <c r="B291" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C291" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D291" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F291" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -7918,16 +7450,16 @@
         <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C292" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D292" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F292" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="293" spans="1:12">
@@ -7935,16 +7467,16 @@
         <v>35</v>
       </c>
       <c r="B293" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C293" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D293" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="F293" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="294" spans="1:12">
@@ -7952,31 +7484,28 @@
         <v>35</v>
       </c>
       <c r="B294" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C294" t="s">
-        <v>82</v>
-      </c>
-      <c r="D294" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="G294" t="s">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="H294" t="s">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="I294" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J294" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K294" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L294" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="295" spans="1:12">
@@ -7984,31 +7513,28 @@
         <v>35</v>
       </c>
       <c r="B295" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C295" t="s">
-        <v>82</v>
-      </c>
-      <c r="D295" t="s">
-        <v>178</v>
+        <v>89</v>
       </c>
       <c r="G295" t="s">
-        <v>306</v>
+        <v>230</v>
       </c>
       <c r="H295" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="I295" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J295" t="s">
-        <v>415</v>
+        <v>354</v>
       </c>
       <c r="K295" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L295" t="s">
-        <v>426</v>
+        <v>369</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -8016,31 +7542,28 @@
         <v>35</v>
       </c>
       <c r="B296" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C296" t="s">
-        <v>82</v>
-      </c>
-      <c r="D296" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="G296" t="s">
-        <v>307</v>
+        <v>231</v>
       </c>
       <c r="H296" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="I296" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J296" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K296" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L296" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="297" spans="1:12">
@@ -8048,31 +7571,28 @@
         <v>35</v>
       </c>
       <c r="B297" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C297" t="s">
-        <v>82</v>
-      </c>
-      <c r="D297" t="s">
+        <v>89</v>
+      </c>
+      <c r="G297" t="s">
         <v>180</v>
       </c>
-      <c r="G297" t="s">
-        <v>256</v>
-      </c>
       <c r="H297" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="I297" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J297" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="K297" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L297" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
     </row>
     <row r="298" spans="1:12">
@@ -8080,16 +7600,16 @@
         <v>36</v>
       </c>
       <c r="B298" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C298" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D298" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F298" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -8097,16 +7617,16 @@
         <v>36</v>
       </c>
       <c r="B299" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C299" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D299" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F299" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
     </row>
     <row r="300" spans="1:12">
@@ -8114,16 +7634,13 @@
         <v>36</v>
       </c>
       <c r="B300" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C300" t="s">
-        <v>82</v>
-      </c>
-      <c r="D300" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G300" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -8131,16 +7648,16 @@
         <v>37</v>
       </c>
       <c r="B301" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C301" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D301" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F301" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="302" spans="1:12">
@@ -8148,16 +7665,16 @@
         <v>37</v>
       </c>
       <c r="B302" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C302" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D302" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F302" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -8165,16 +7682,16 @@
         <v>37</v>
       </c>
       <c r="B303" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C303" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D303" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F303" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="304" spans="1:12">
@@ -8182,16 +7699,16 @@
         <v>37</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C304" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D304" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F304" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="305" spans="1:12">
@@ -8199,16 +7716,16 @@
         <v>37</v>
       </c>
       <c r="B305" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C305" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D305" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="F305" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -8216,16 +7733,16 @@
         <v>37</v>
       </c>
       <c r="B306" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C306" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D306" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F306" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
     </row>
     <row r="307" spans="1:12">
@@ -8233,16 +7750,16 @@
         <v>37</v>
       </c>
       <c r="B307" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C307" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D307" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F307" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
     </row>
     <row r="308" spans="1:12">
@@ -8250,31 +7767,28 @@
         <v>37</v>
       </c>
       <c r="B308" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C308" t="s">
-        <v>82</v>
-      </c>
-      <c r="D308" t="s">
-        <v>182</v>
+        <v>89</v>
       </c>
       <c r="G308" t="s">
+        <v>232</v>
+      </c>
+      <c r="H308" t="s">
         <v>308</v>
       </c>
-      <c r="H308" t="s">
-        <v>378</v>
-      </c>
       <c r="I308" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J308" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K308" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L308" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -8282,31 +7796,28 @@
         <v>37</v>
       </c>
       <c r="B309" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C309" t="s">
-        <v>82</v>
-      </c>
-      <c r="D309" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
       <c r="G309" t="s">
+        <v>233</v>
+      </c>
+      <c r="H309" t="s">
         <v>309</v>
       </c>
-      <c r="H309" t="s">
-        <v>379</v>
-      </c>
       <c r="I309" t="s">
-        <v>387</v>
+        <v>323</v>
       </c>
       <c r="J309" t="s">
-        <v>406</v>
+        <v>345</v>
       </c>
       <c r="K309" t="s">
+        <v>317</v>
+      </c>
+      <c r="L309" t="s">
         <v>381</v>
-      </c>
-      <c r="L309" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="310" spans="1:12">
@@ -8314,31 +7825,450 @@
         <v>37</v>
       </c>
       <c r="B310" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C310" t="s">
-        <v>82</v>
-      </c>
-      <c r="D310" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="G310" t="s">
+        <v>234</v>
+      </c>
+      <c r="H310" t="s">
         <v>310</v>
       </c>
-      <c r="H310" t="s">
-        <v>380</v>
-      </c>
       <c r="I310" t="s">
-        <v>303</v>
+        <v>227</v>
       </c>
       <c r="J310" t="s">
-        <v>402</v>
+        <v>341</v>
       </c>
       <c r="K310" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="L310" t="s">
-        <v>427</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
+      <c r="B311" t="s">
+        <v>83</v>
+      </c>
+      <c r="C311" t="s">
+        <v>88</v>
+      </c>
+      <c r="D311" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
+      <c r="B312" t="s">
+        <v>83</v>
+      </c>
+      <c r="C312" t="s">
+        <v>89</v>
+      </c>
+      <c r="G312" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
+      <c r="A313" t="s">
+        <v>38</v>
+      </c>
+      <c r="B313" t="s">
+        <v>84</v>
+      </c>
+      <c r="C313" t="s">
+        <v>88</v>
+      </c>
+      <c r="D313" t="s">
+        <v>94</v>
+      </c>
+      <c r="F313" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
+      <c r="A314" t="s">
+        <v>38</v>
+      </c>
+      <c r="B314" t="s">
+        <v>84</v>
+      </c>
+      <c r="C314" t="s">
+        <v>88</v>
+      </c>
+      <c r="D314" t="s">
+        <v>92</v>
+      </c>
+      <c r="F314" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
+      <c r="A315" t="s">
+        <v>38</v>
+      </c>
+      <c r="B315" t="s">
+        <v>84</v>
+      </c>
+      <c r="C315" t="s">
+        <v>88</v>
+      </c>
+      <c r="D315" t="s">
+        <v>93</v>
+      </c>
+      <c r="F315" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
+      <c r="A316" t="s">
+        <v>38</v>
+      </c>
+      <c r="B316" t="s">
+        <v>84</v>
+      </c>
+      <c r="C316" t="s">
+        <v>89</v>
+      </c>
+      <c r="G316" t="s">
+        <v>235</v>
+      </c>
+      <c r="H316" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
+      <c r="A317" t="s">
+        <v>38</v>
+      </c>
+      <c r="B317" t="s">
+        <v>84</v>
+      </c>
+      <c r="C317" t="s">
+        <v>89</v>
+      </c>
+      <c r="H317" t="s">
+        <v>227</v>
+      </c>
+      <c r="I317" t="s">
+        <v>334</v>
+      </c>
+      <c r="J317" t="s">
+        <v>317</v>
+      </c>
+      <c r="K317" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
+      <c r="A318" t="s">
+        <v>38</v>
+      </c>
+      <c r="B318" t="s">
+        <v>85</v>
+      </c>
+      <c r="C318" t="s">
+        <v>88</v>
+      </c>
+      <c r="D318" t="s">
+        <v>94</v>
+      </c>
+      <c r="F318" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
+      <c r="A319" t="s">
+        <v>38</v>
+      </c>
+      <c r="B319" t="s">
+        <v>85</v>
+      </c>
+      <c r="C319" t="s">
+        <v>88</v>
+      </c>
+      <c r="D319" t="s">
+        <v>92</v>
+      </c>
+      <c r="F319" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
+      <c r="A320" t="s">
+        <v>38</v>
+      </c>
+      <c r="B320" t="s">
+        <v>85</v>
+      </c>
+      <c r="C320" t="s">
+        <v>88</v>
+      </c>
+      <c r="D320" t="s">
+        <v>93</v>
+      </c>
+      <c r="F320" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
+      <c r="A321" t="s">
+        <v>38</v>
+      </c>
+      <c r="B321" t="s">
+        <v>85</v>
+      </c>
+      <c r="C321" t="s">
+        <v>89</v>
+      </c>
+      <c r="G321" t="s">
+        <v>235</v>
+      </c>
+      <c r="H321" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
+      <c r="A322" t="s">
+        <v>38</v>
+      </c>
+      <c r="B322" t="s">
+        <v>85</v>
+      </c>
+      <c r="C322" t="s">
+        <v>89</v>
+      </c>
+      <c r="H322" t="s">
+        <v>227</v>
+      </c>
+      <c r="I322" t="s">
+        <v>334</v>
+      </c>
+      <c r="J322" t="s">
+        <v>317</v>
+      </c>
+      <c r="K322" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
+      <c r="A323" t="s">
+        <v>38</v>
+      </c>
+      <c r="B323" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" t="s">
+        <v>89</v>
+      </c>
+      <c r="G323" t="s">
+        <v>236</v>
+      </c>
+      <c r="H323" t="s">
+        <v>312</v>
+      </c>
+      <c r="I323" t="s">
+        <v>227</v>
+      </c>
+      <c r="J323" t="s">
+        <v>334</v>
+      </c>
+      <c r="K323" t="s">
+        <v>317</v>
+      </c>
+      <c r="L323" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
+      <c r="A324" t="s">
+        <v>38</v>
+      </c>
+      <c r="B324" t="s">
+        <v>85</v>
+      </c>
+      <c r="C324" t="s">
+        <v>89</v>
+      </c>
+      <c r="G324" t="s">
+        <v>237</v>
+      </c>
+      <c r="H324" t="s">
+        <v>313</v>
+      </c>
+      <c r="I324" t="s">
+        <v>335</v>
+      </c>
+      <c r="J324" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
+      <c r="A325" t="s">
+        <v>38</v>
+      </c>
+      <c r="B325" t="s">
+        <v>85</v>
+      </c>
+      <c r="C325" t="s">
+        <v>89</v>
+      </c>
+      <c r="H325" t="s">
+        <v>227</v>
+      </c>
+      <c r="I325" t="s">
+        <v>334</v>
+      </c>
+      <c r="J325" t="s">
+        <v>317</v>
+      </c>
+      <c r="K325" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
+      <c r="A326" t="s">
+        <v>38</v>
+      </c>
+      <c r="B326" t="s">
+        <v>85</v>
+      </c>
+      <c r="C326" t="s">
+        <v>89</v>
+      </c>
+      <c r="G326" t="s">
+        <v>238</v>
+      </c>
+      <c r="H326" t="s">
+        <v>314</v>
+      </c>
+      <c r="I326" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
+      <c r="A327" t="s">
+        <v>38</v>
+      </c>
+      <c r="B327" t="s">
+        <v>85</v>
+      </c>
+      <c r="C327" t="s">
+        <v>89</v>
+      </c>
+      <c r="H327" t="s">
+        <v>227</v>
+      </c>
+      <c r="I327" t="s">
+        <v>334</v>
+      </c>
+      <c r="J327" t="s">
+        <v>317</v>
+      </c>
+      <c r="K327" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
+      <c r="B328" t="s">
+        <v>86</v>
+      </c>
+      <c r="C328" t="s">
+        <v>88</v>
+      </c>
+      <c r="D328" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
+      <c r="B329" t="s">
+        <v>86</v>
+      </c>
+      <c r="C329" t="s">
+        <v>89</v>
+      </c>
+      <c r="G329" t="s">
+        <v>239</v>
+      </c>
+      <c r="H329" t="s">
+        <v>315</v>
+      </c>
+      <c r="I329" t="s">
+        <v>337</v>
+      </c>
+      <c r="J329" t="s">
+        <v>227</v>
+      </c>
+      <c r="K329" t="s">
+        <v>334</v>
+      </c>
+      <c r="L329" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
+      <c r="A330" t="s">
+        <v>39</v>
+      </c>
+      <c r="B330" t="s">
+        <v>87</v>
+      </c>
+      <c r="C330" t="s">
+        <v>88</v>
+      </c>
+      <c r="D330" t="s">
+        <v>101</v>
+      </c>
+      <c r="F330" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
+      <c r="A331" t="s">
+        <v>39</v>
+      </c>
+      <c r="B331" t="s">
+        <v>87</v>
+      </c>
+      <c r="C331" t="s">
+        <v>88</v>
+      </c>
+      <c r="D331" t="s">
+        <v>93</v>
+      </c>
+      <c r="F331" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
+      <c r="A332" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" t="s">
+        <v>87</v>
+      </c>
+      <c r="C332" t="s">
+        <v>89</v>
+      </c>
+      <c r="G332" t="s">
+        <v>240</v>
+      </c>
+      <c r="H332" t="s">
+        <v>316</v>
+      </c>
+      <c r="I332" t="s">
+        <v>323</v>
+      </c>
+      <c r="J332" t="s">
+        <v>334</v>
+      </c>
+      <c r="K332" t="s">
+        <v>317</v>
+      </c>
+      <c r="L332" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
